--- a/Data/Output/Cars.xlsx
+++ b/Data/Output/Cars.xlsx
@@ -1,81 +1,750 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreiHandrau\Documents\GitHub\Cars_on_Mobile\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735BD46-EB94-400E-96EE-B5F17BFB4191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <x:bookViews>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra,Cam,AHK,Xenon,el. Klappe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349957880&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=3&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1e9bfedd-f7f6-ba3b-738a-6b7a36c3012d&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant NAVI+/SPURPKT/XENON/BOSE/AHK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349754207&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=5&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=42ff835c-d791-29dd-a00e-45942a2de641&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra*190-PS*BIXEN*GARANTIE*PDC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346886358&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e6461717-4b35-9411-ae33-108991f68452&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Ultra Avant*2,0TDI-140KW*NAVI*TEMPOMAT*SH*EU6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=6&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=e6461717-4b35-9411-ae33-108991f68452&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra Navi Plus Alcantara</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349726920&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=7&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=862ca0be-c532-e9a9-12e7-ed55dd21427c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26450</x:t>
+  </x:si>
+  <x:si>
+    <x:t>54684</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI Sport Selection / Service neu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349614033&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=a2000b14-d97a-ff20-ccc4-a74f340cf680&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2013</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI DPF</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349360013&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=8&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=a2000b14-d97a-ff20-ccc4-a74f340cf680&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2012</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI 140kW ultra Avant -</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350075379&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=add03afe-fde4-d45e-f38b-e4445ae2e14c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI DPF - 19",MMI Navi Plus,Leder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349497595&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=9&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=add03afe-fde4-d45e-f38b-e4445ae2e14c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2011</x:t>
+  </x:si>
+  <x:si>
+    <x:t>81200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra GRA Navi Xenon Kamera</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348167941&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=10&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=f6fce059-ca2a-d825-cba7-3a5bcfb0a153&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89852</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Lim. 1.8 TFSI*S-Line*Xenon*Navi*Sitzh.*AHK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347836029&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=11&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=ff3bff37-aaa0-0de0-d5d9-79cae77c2e8b&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>58800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra*TopZustand*19 Zoll*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=341128844&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=11&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=ff3bff37-aaa0-0de0-d5d9-79cae77c2e8b&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>63500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Limousine 2.0TDI,LEDER,NAVI,XENON,KAM,19"1HAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350149569&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=11&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=ff3bff37-aaa0-0de0-d5d9-79cae77c2e8b&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349805224&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=12&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=16adf364-2d8d-defa-a782-4e3e48db82bb&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI LED Paket S line Navi Plus Sport 4xSH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347776245&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=13&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=f8b6e15e-4058-5edd-d8f8-49b41298c034&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26250</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI Avant ultra XENON+AHK+KLIMA+PDC+TEMP+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348566460&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=13&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=f8b6e15e-4058-5edd-d8f8-49b41298c034&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>62140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI Ultra Navi+Klima+SHZ+54tkm!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343816651&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=14&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=373ca7f1-02c0-03a3-4f13-aec0bfad4624&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>53900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra 6-G. NAVI XENON PDC LEDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346968128&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=14&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=373ca7f1-02c0-03a3-4f13-aec0bfad4624&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI XENON+NAVI+2xPDC+GRA+AHK+ALU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347859050&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=15&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=4ac38887-a9a3-bf47-155b-0d27fec73603&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70519</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 4G 2.0 TFSI /S-Line Fahrw/AHK/Nav/SHZ/Tempo.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347949192&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=15&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=4ac38887-a9a3-bf47-155b-0d27fec73603&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>91879</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Lim. 2.0 TFSI/Navi/Bi-Xenon/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346500896&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=15&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=4ac38887-a9a3-bf47-155b-0d27fec73603&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19498</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI | Navi | SHZ | Schaltgetriebe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347666530&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=17&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=72789716-aeb2-da4b-8c10-624f5ed5b2cc&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0TDI ultra Xenon Leder Navi SHZ PDC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346899560&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=18&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=fe4cf303-3ac6-5b2a-4ac7-ed11e5074166&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69381</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant S-Line INDIVIDUAL|MATRIX|BOSE|KAMERA|RO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347563593&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=19&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=6bed11ff-af98-c31f-0e30-6b650b150140&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI 140kW ultra Avant - Garagenwagen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=349411137&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=19&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=6bed11ff-af98-c31f-0e30-6b650b150140&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra 0,99% Finanzierung!!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343786478&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=20&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=b4a3f851-f206-4bef-60b1-8b9aa7d8125c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26750</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84773</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 3.0 TDI S-tronic LEDER+BOSE+MATRIX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347823569&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=20&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=b4a3f851-f206-4bef-60b1-8b9aa7d8125c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>67314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Lim. 2.0 TFSI, Xenon, Navi, 2 x PDC, 8 Räder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345257485&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=21&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=bdbf7f34-e573-af32-f03f-c2c3a8555479&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>82600</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI Xenon*AHK*Navi*Bluetooth</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=342805811&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=21&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=bdbf7f34-e573-af32-f03f-c2c3a8555479&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25810</x:t>
+  </x:si>
+  <x:si>
+    <x:t>84759</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI ultra *LED, Standheizung, MMI*</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346132107&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=22&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1f260b63-e435-48f1-fbcd-59b389449c6a&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Lim. 2.0 TFSI BOSE + AHK+SR/WR+MMI+DAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348276595&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=22&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=1f260b63-e435-48f1-fbcd-59b389449c6a&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22980</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 1.8 TFSI -</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350058433&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=ALSO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;fuels=DIESEL&amp;fuels=PETROL&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=23&amp;scopeId=C&amp;transmissions=MANUAL_GEAR&amp;searchId=a16e2e76-42ab-aa03-96b8-21fd628e99b4&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348276595&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=21&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=ffe6f0f0-d72b-1bb7-12a3-df372875b0c7&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=350058433&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=21&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=ffe6f0f0-d72b-1bb7-12a3-df372875b0c7&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI Xenon, Navi, Leder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=338503777&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=24&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=9c093e21-a68d-1be1-676c-c6edb180f094&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>69900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348889170&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=26&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;action=topOfPage&amp;top=1:1&amp;searchId=40cd3018-e8da-6cee-6317-873712728ff1&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI ultra LED Navi Keyless Fernlichtass.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346827155&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=26&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=40cd3018-e8da-6cee-6317-873712728ff1&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24890</x:t>
+  </x:si>
+  <x:si>
+    <x:t>87200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra AHK, Navi, 4-Zonen Klima</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=315482173&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=26&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=40cd3018-e8da-6cee-6317-873712728ff1&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI 4G C7 ultra 3x S Line</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343820684&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=27&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=5ded83ca-fc62-47e8-44fa-e8a81999f3ba&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23800</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86500</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI Pano,Xenon,HUD,Navi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346079968&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=27&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=5ded83ca-fc62-47e8-44fa-e8a81999f3ba&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25446</x:t>
+  </x:si>
+  <x:si>
+    <x:t>77650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345691986&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=27&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=5ded83ca-fc62-47e8-44fa-e8a81999f3ba&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI 3xS line Sport/Plus Leder+Bi-Xenon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348011065&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=27&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;fnai=next&amp;searchId=5ded83ca-fc62-47e8-44fa-e8a81999f3ba&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>75300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TFSI 56oookm LEDER XENON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347007359&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=28&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=059f0caf-ee1a-b038-3a3a-c88c9263d377&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20990</x:t>
+  </x:si>
+  <x:si>
+    <x:t>56000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI*S-Line*Xenon+*Navi*Kamera*SHZ*MFL*ASS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347788076&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=28&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=059f0caf-ee1a-b038-3a3a-c88c9263d377&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20970</x:t>
+  </x:si>
+  <x:si>
+    <x:t>97219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI XENON/LEDER/S-SITZE/NAVI/KAMERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348738223&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=28&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=059f0caf-ee1a-b038-3a3a-c88c9263d377&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>79900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant S line 2.8 V6 FSI Alca+Sound+Standhzg+2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346673139&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=28&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=059f0caf-ee1a-b038-3a3a-c88c9263d377&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>57749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0TDI S-Line Xen Nav Luft Lane Bose 19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348915922&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=29&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=3f102e7b-24ac-4f7b-426e-f3a9b13dc4b5&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23760</x:t>
+  </x:si>
+  <x:si>
+    <x:t>80730</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Lim. 3.0 TDI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=273589660&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=29&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=3f102e7b-24ac-4f7b-426e-f3a9b13dc4b5&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19399</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Lim. 2x S Line Led Navi Sportsitze Privacy.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346778187&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=31&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;action=eyeCatcher&amp;searchId=1e0195ac-b3e0-8b4d-9231-dd47d868bf9c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>60510</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra Xenon Navi Sitzheizung Pa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348945232&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=31&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=1e0195ac-b3e0-8b4d-9231-dd47d868bf9c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24850</x:t>
+  </x:si>
+  <x:si>
+    <x:t>78733</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra Pano Bose MMI+ Xenon</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=346788797&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=31&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=1e0195ac-b3e0-8b4d-9231-dd47d868bf9c&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>66023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra NAVI*TEMPOMAT*KAMERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=347939948&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=32&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=703a4875-a3ca-92fe-6d7f-592dcb7776b7&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23900</x:t>
+  </x:si>
+  <x:si>
+    <x:t>83000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=343786478&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=32&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=703a4875-a3ca-92fe-6d7f-592dcb7776b7&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra / 43.650km / 8-fach</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345992851&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=32&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=703a4875-a3ca-92fe-6d7f-592dcb7776b7&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>26950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>43650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=342415589&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=33&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;fnai=prev&amp;searchId=7b23b12d-2a50-2a06-d064-0312d733ed42&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28000</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI ultra, 140kW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=348584861&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=33&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=7b23b12d-2a50-2a06-d064-0312d733ed42&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90560</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 Avant 2.0 TDI ultra AHK Navi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=345675589&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=33&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=7b23b12d-2a50-2a06-d064-0312d733ed42&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28300</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audi A6 2.0 TDI ultra</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://suchen.mobile.de/fahrzeuge/details.html?id=344286095&amp;categories=EstateCar&amp;categories=Limousine&amp;categories=SportsCar&amp;damageUnrepaired=NO_DAMAGE_UNREPAIRED&amp;emissionsSticker=EMISSIONSSTICKER_GREEN&amp;isSearchRequest=true&amp;makeModelVariant1.makeId=1900&amp;makeModelVariant1.modelId=10&amp;makeModelVariant2.makeId=3500&amp;makeModelVariant2.modelId=60&amp;maxCubicCapacity=3000&amp;minPowerAsArray=96&amp;minPowerAsArray=KW&amp;minSeats=5&amp;pageNumber=33&amp;scopeId=C&amp;sortOption.sortBy=relevance&amp;transmissions=MANUAL_GEAR&amp;searchId=7b23b12d-2a50-2a06-d064-0312d733ed42&amp;ref=srp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>98500</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,15 +1009,1009 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" activeCellId="4" sqref="E1 D1 C1 A1 B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="B1" sqref="B1 B1:B1 E1:E1 D1:D1 C1:C1 A1:A1"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E5" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="1" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E7" s="1" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E8" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E9" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:5">
+      <x:c r="A10" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E10" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:5">
+      <x:c r="A11" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E11" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D12" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E12" s="1" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="1" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D13" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:5">
+      <x:c r="A14" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D14" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E14" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:5">
+      <x:c r="A15" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D15" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E15" s="1" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:5">
+      <x:c r="A16" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="B16" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C16" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E16" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:5">
+      <x:c r="A17" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C17" s="1" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D17" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E17" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:5">
+      <x:c r="A18" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C18" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D18" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E18" s="1" t="s">
+        <x:v>75</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:5">
+      <x:c r="A19" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:5">
+      <x:c r="A20" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:5">
+      <x:c r="A21" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="D21" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E21" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:5">
+      <x:c r="A22" s="1" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E22" s="1" t="s">
+        <x:v>88</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:5">
+      <x:c r="A23" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E23" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:5">
+      <x:c r="A24" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E24" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:5">
+      <x:c r="A25" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E25" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E26" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E27" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E28" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:5">
+      <x:c r="A30" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5">
+      <x:c r="A31" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="1" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>131</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E34" s="1" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:5">
+      <x:c r="A37" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:5">
+      <x:c r="A38" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E38" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:5">
+      <x:c r="A39" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E39" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:5">
+      <x:c r="A40" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:5">
+      <x:c r="A41" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:5">
+      <x:c r="A42" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:5">
+      <x:c r="A43" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:5">
+      <x:c r="A44" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E44" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:5">
+      <x:c r="A45" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:5">
+      <x:c r="A46" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C46" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E46" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:5">
+      <x:c r="A47" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="E47" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:5">
+      <x:c r="A48" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C48" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:5">
+      <x:c r="A49" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C49" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="D49" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E49" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:5">
+      <x:c r="A50" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E50" s="1" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:5">
+      <x:c r="A51" s="1" t="s">
+        <x:v>192</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>193</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D51" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E51" s="1" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:5">
+      <x:c r="A52" s="1" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>197</x:v>
+      </x:c>
+      <x:c r="D52" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E52" s="1" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:5">
+      <x:c r="A53" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>199</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E53" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:5">
+      <x:c r="A54" s="1" t="s">
+        <x:v>200</x:v>
+      </x:c>
+      <x:c r="B54" s="1" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="C54" s="1" t="s">
+        <x:v>202</x:v>
+      </x:c>
+      <x:c r="D54" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E54" s="1" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:5">
+      <x:c r="A55" s="1" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B55" s="1" t="s">
+        <x:v>204</x:v>
+      </x:c>
+      <x:c r="C55" s="1" t="s">
+        <x:v>205</x:v>
+      </x:c>
+      <x:c r="D55" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E55" s="1" t="s">
+        <x:v>206</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:5">
+      <x:c r="A56" s="1" t="s">
+        <x:v>207</x:v>
+      </x:c>
+      <x:c r="B56" s="1" t="s">
+        <x:v>208</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D56" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E56" s="1" t="s">
+        <x:v>209</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:5">
+      <x:c r="A57" s="1" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="B57" s="1" t="s">
+        <x:v>211</x:v>
+      </x:c>
+      <x:c r="C57" s="1" t="s">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="E57" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:5">
+      <x:c r="A58" s="1" t="s">
+        <x:v>213</x:v>
+      </x:c>
+      <x:c r="B58" s="1" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="C58" s="1" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E58" s="1" t="s">
+        <x:v>216</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>